--- a/results/second_stage/df_to_rev2.xlsx
+++ b/results/second_stage/df_to_rev2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t xml:space="preserve">order</t>
   </si>
@@ -110,6 +110,9 @@
     <t xml:space="preserve">reminder_results</t>
   </si>
   <si>
+    <t xml:space="preserve">ma_x</t>
+  </si>
+  <si>
     <t xml:space="preserve">AC</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">qualitative_check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reason</t>
   </si>
   <si>
     <t xml:space="preserve">Boumparis2016</t>
@@ -1035,49 +1041,55 @@
       <c r="AY1" t="s">
         <v>50</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O2" t="n">
         <v>2</v>
@@ -1105,10 +1117,10 @@
         <v>74</v>
       </c>
       <c r="X2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z2"/>
       <c r="AA2"/>
@@ -1118,105 +1130,109 @@
       <c r="AE2"/>
       <c r="AF2"/>
       <c r="AG2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH2" t="n">
         <v>0.49</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>10</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.462</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>0.146</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>0.777</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>0.631</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>2.868</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>35.036</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>74.312</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>0</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>-0.434782608695653</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>-28.7755102040816</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>-0.311999999999998</v>
       </c>
-      <c r="AT2" t="s">
-        <v>65</v>
-      </c>
       <c r="AU2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AY2" t="s">
-        <v>69</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O3" t="n">
         <v>2</v>
@@ -1244,10 +1260,10 @@
         <v>51.6</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z3"/>
       <c r="AA3"/>
@@ -1257,105 +1273,109 @@
       <c r="AE3"/>
       <c r="AF3"/>
       <c r="AG3" t="n">
+        <v>56</v>
+      </c>
+      <c r="AH3" t="n">
         <v>0.46</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>11</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>-0.256</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>-0.521</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>0.01</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>0.53</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>-1.888</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>25.08</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>59.531</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>0</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>8.57142857142858</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>-15.2173913043478</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>-7.931</v>
       </c>
-      <c r="AT3" t="s">
-        <v>65</v>
-      </c>
       <c r="AU3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV3" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AX3" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="AY3" t="s">
-        <v>69</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
@@ -1383,10 +1403,10 @@
         <v>38.4</v>
       </c>
       <c r="X4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z4"/>
       <c r="AA4"/>
@@ -1396,105 +1416,109 @@
       <c r="AE4"/>
       <c r="AF4"/>
       <c r="AG4" t="n">
+        <v>57</v>
+      </c>
+      <c r="AH4" t="n">
         <v>0.38</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>12</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>-0.133</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>-0.324</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>0.057</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>0.382</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>-1.371</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>15.154</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>34.228</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>0</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>5</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>-0.526315789473685</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>4.172</v>
       </c>
-      <c r="AT4" t="s">
-        <v>81</v>
-      </c>
       <c r="AU4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV4" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX4" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AY4" t="s">
-        <v>69</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O5" t="n">
         <v>2</v>
@@ -1522,10 +1546,10 @@
         <v>56.5</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z5"/>
       <c r="AA5"/>
@@ -1535,105 +1559,109 @@
       <c r="AE5"/>
       <c r="AF5"/>
       <c r="AG5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AH5" t="n">
         <v>0.4</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>16</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>-0.519</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>-0.704</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>-0.333</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>0.372</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>-5.47</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>27.69</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>45.815</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>0</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>-3.8</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>7.00000000000001</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>10.685</v>
       </c>
-      <c r="AT5" t="s">
-        <v>65</v>
-      </c>
       <c r="AU5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX5" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AY5" t="s">
-        <v>69</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA5"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O6" t="n">
         <v>2</v>
@@ -1661,10 +1689,10 @@
         <v>42</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z6"/>
       <c r="AA6"/>
@@ -1674,102 +1702,106 @@
       <c r="AE6"/>
       <c r="AF6"/>
       <c r="AG6" t="n">
+        <v>58</v>
+      </c>
+      <c r="AH6" t="n">
         <v>0.35</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>14</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.125</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>-0.06</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>0.31</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>0.37</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>1.324</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>21.731</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>41.909</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>0</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>10.7142857142857</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>-5.71428571428572</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>0.0910000000000011</v>
       </c>
-      <c r="AT6" t="s">
-        <v>81</v>
-      </c>
       <c r="AU6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV6" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX6" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AY6" t="s">
-        <v>90</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA6"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N7"/>
       <c r="O7" t="n">
@@ -1796,10 +1828,10 @@
       <c r="V7"/>
       <c r="W7"/>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z7"/>
       <c r="AA7"/>
@@ -1809,101 +1841,105 @@
       <c r="AE7"/>
       <c r="AF7"/>
       <c r="AG7" t="n">
+        <v>82</v>
+      </c>
+      <c r="AH7" t="n">
         <v>0.173</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>12</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.516</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>0.43</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>0.603</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>0.173</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>11.699</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>68.143</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>83.857</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>0</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>-6.61157024793389</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>0</v>
       </c>
-      <c r="AS7"/>
-      <c r="AT7" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT7"/>
       <c r="AU7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX7" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="AY7" t="s">
-        <v>69</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA7"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O8" t="n">
         <v>2</v>
@@ -1927,10 +1963,10 @@
       <c r="V8"/>
       <c r="W8"/>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z8"/>
       <c r="AA8"/>
@@ -1940,103 +1976,107 @@
       <c r="AE8"/>
       <c r="AF8"/>
       <c r="AG8" t="n">
+        <v>88</v>
+      </c>
+      <c r="AH8" t="n">
         <v>0.41</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>34</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>1.733</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>1.515</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>1.951</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>0.436</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>15.584</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AO8" t="n">
         <v>240.847</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
         <v>86.298</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AQ8" t="n">
         <v>0</v>
       </c>
-      <c r="AQ8" t="n">
+      <c r="AR8" t="n">
         <v>-2.54437869822486</v>
       </c>
-      <c r="AR8" t="n">
+      <c r="AS8" t="n">
         <v>-6.34146341463415</v>
       </c>
-      <c r="AS8"/>
-      <c r="AT8" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT8"/>
       <c r="AU8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX8" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="AY8" t="s">
-        <v>69</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA8"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="N9" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -2066,10 +2106,10 @@
         <v>56.6</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z9"/>
       <c r="AA9"/>
@@ -2079,105 +2119,109 @@
       <c r="AE9"/>
       <c r="AF9"/>
       <c r="AG9" t="n">
+        <v>97</v>
+      </c>
+      <c r="AH9" t="n">
         <v>0.528</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>20</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.54</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>0.307</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>0.773</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>0.466</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>4.538</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>38.505</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>50.656</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>-3</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>4.59363957597172</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9" t="n">
         <v>11.7424242424242</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
         <v>5.944</v>
       </c>
-      <c r="AT9" t="s">
-        <v>65</v>
-      </c>
       <c r="AU9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX9" t="s">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="AY9" t="s">
-        <v>90</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA9"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="H10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
@@ -2207,10 +2251,10 @@
         <v>60</v>
       </c>
       <c r="X10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Y10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z10"/>
       <c r="AA10"/>
@@ -2220,105 +2264,109 @@
       <c r="AE10"/>
       <c r="AF10"/>
       <c r="AG10" t="n">
+        <v>118</v>
+      </c>
+      <c r="AH10" t="n">
         <v>0.7</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>7</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>-0.634</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>-1.002</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>-0.267</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>0.735</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>-3.383</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AO10" t="n">
         <v>16.877</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>64.449</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>0</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AR10" t="n">
         <v>-3.9344262295082</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
         <v>-5</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AT10" t="n">
         <v>-4.449</v>
       </c>
-      <c r="AT10" t="s">
-        <v>65</v>
-      </c>
       <c r="AU10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX10" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="AY10" t="s">
-        <v>69</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA10"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C11" t="n">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O11" t="n">
         <v>2</v>
@@ -2346,10 +2394,10 @@
         <v>5.33</v>
       </c>
       <c r="X11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z11"/>
       <c r="AA11"/>
@@ -2359,105 +2407,109 @@
       <c r="AE11"/>
       <c r="AF11"/>
       <c r="AG11" t="n">
+        <v>134</v>
+      </c>
+      <c r="AH11" t="n">
         <v>0.18</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>41</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>-0.017</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>-0.107</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>0.072</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>0.179</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>-0.38</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AO11" t="n">
         <v>56.643</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AP11" t="n">
         <v>14.141</v>
       </c>
-      <c r="AP11" t="n">
+      <c r="AQ11" t="n">
         <v>0</v>
       </c>
-      <c r="AQ11" t="n">
+      <c r="AR11" t="n">
         <v>-70</v>
       </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
         <v>0.555555555555556</v>
       </c>
-      <c r="AS11" t="n">
+      <c r="AT11" t="n">
         <v>-8.811</v>
       </c>
-      <c r="AT11" t="s">
-        <v>81</v>
-      </c>
       <c r="AU11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV11" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX11" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AY11" t="s">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA11"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C12" t="n">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O12" t="n">
         <v>2</v>
@@ -2485,10 +2537,10 @@
         <v>43.54</v>
       </c>
       <c r="X12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y12" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z12"/>
       <c r="AA12"/>
@@ -2498,105 +2550,109 @@
       <c r="AE12"/>
       <c r="AF12"/>
       <c r="AG12" t="n">
+        <v>136</v>
+      </c>
+      <c r="AH12" t="n">
         <v>0.41</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>11</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.15</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>-0.021</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>0.32</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>0.34</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>1.723</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AO12" t="n">
         <v>15.97</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AP12" t="n">
         <v>13.479</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>0</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="AR12" t="n">
         <v>21.0526315789474</v>
       </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
         <v>17.0731707317073</v>
       </c>
-      <c r="AS12" t="n">
+      <c r="AT12" t="n">
         <v>30.061</v>
       </c>
-      <c r="AT12" t="s">
-        <v>81</v>
-      </c>
       <c r="AU12" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV12" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX12" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AY12" t="s">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA12"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C13" t="n">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L13" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O13" t="n">
         <v>2</v>
@@ -2624,10 +2680,10 @@
         <v>38.11</v>
       </c>
       <c r="X13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z13"/>
       <c r="AA13"/>
@@ -2637,105 +2693,109 @@
       <c r="AE13"/>
       <c r="AF13"/>
       <c r="AG13" t="n">
+        <v>139</v>
+      </c>
+      <c r="AH13" t="n">
         <v>0.31</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>26</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>-0.018</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>-0.181</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>0.146</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>0.328</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>-0.21</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AO13" t="n">
         <v>47.876</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>43.728</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>0</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AR13" t="n">
         <v>55</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
         <v>-5.80645161290323</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AT13" t="n">
         <v>-5.618</v>
       </c>
-      <c r="AT13" t="s">
-        <v>81</v>
-      </c>
       <c r="AU13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV13" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX13" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AY13" t="s">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA13"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C14" t="n">
         <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H14" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O14" t="n">
         <v>2</v>
@@ -2763,10 +2823,10 @@
         <v>37.6</v>
       </c>
       <c r="X14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z14"/>
       <c r="AA14"/>
@@ -2776,105 +2836,109 @@
       <c r="AE14"/>
       <c r="AF14"/>
       <c r="AG14" t="n">
+        <v>140</v>
+      </c>
+      <c r="AH14" t="n">
         <v>0.51</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>12</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>-0.013</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>-0.22</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>0.194</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>0.415</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>-0.124</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>16.947</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>11.323</v>
       </c>
-      <c r="AP14" t="n">
+      <c r="AQ14" t="n">
         <v>0</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AR14" t="n">
         <v>132.5</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
         <v>18.6274509803922</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AT14" t="n">
         <v>26.277</v>
       </c>
-      <c r="AT14" t="s">
-        <v>81</v>
-      </c>
       <c r="AU14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV14" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX14" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AY14" t="s">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AZ14" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA14"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O15" t="n">
         <v>2</v>
@@ -2902,10 +2966,10 @@
         <v>53.25</v>
       </c>
       <c r="X15" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Z15"/>
       <c r="AA15"/>
@@ -2915,105 +2979,109 @@
       <c r="AE15"/>
       <c r="AF15"/>
       <c r="AG15" t="n">
+        <v>142</v>
+      </c>
+      <c r="AH15" t="n">
         <v>0.5</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>11</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>0.012</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>-0.221</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>0.246</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>0.468</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>0.103</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>19.373</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>45.795</v>
       </c>
-      <c r="AP15" t="n">
+      <c r="AQ15" t="n">
         <v>0</v>
       </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
         <v>60</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
         <v>6.4</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AT15" t="n">
         <v>7.455</v>
       </c>
-      <c r="AT15" t="s">
-        <v>81</v>
-      </c>
       <c r="AU15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AV15" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX15" t="s">
-        <v>136</v>
+        <v>69</v>
       </c>
       <c r="AY15" t="s">
-        <v>90</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA15"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>81</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O16" t="n">
         <v>2</v>
@@ -3039,10 +3107,10 @@
         <v>39</v>
       </c>
       <c r="X16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y16" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Z16"/>
       <c r="AA16"/>
@@ -3052,105 +3120,109 @@
       <c r="AE16"/>
       <c r="AF16"/>
       <c r="AG16" t="n">
+        <v>179</v>
+      </c>
+      <c r="AH16" t="n">
         <v>0.45</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>11</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>0.722</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>0.515</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>0.928</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>0.413</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>6.849</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>12.31</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>18.765</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>-1</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
         <v>-12.8125</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>8.22222222222223</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AT16" t="n">
         <v>20.235</v>
       </c>
-      <c r="AT16" t="s">
-        <v>65</v>
-      </c>
       <c r="AU16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX16" t="s">
-        <v>150</v>
+        <v>69</v>
       </c>
       <c r="AY16" t="s">
-        <v>69</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA16"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C17" t="n">
         <v>4</v>
       </c>
       <c r="D17" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F17" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H17" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="I17" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N17" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O17" t="n">
         <v>2</v>
@@ -3178,10 +3250,10 @@
         <v>23</v>
       </c>
       <c r="X17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Y17" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Z17"/>
       <c r="AA17"/>
@@ -3191,105 +3263,109 @@
       <c r="AE17"/>
       <c r="AF17"/>
       <c r="AG17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH17" t="n">
         <v>0.57</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>10</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>0.545</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>0.303</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>0.788</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>0.485</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>4.407</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AO17" t="n">
         <v>24.929</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AP17" t="n">
         <v>63.898</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>0</v>
       </c>
-      <c r="AQ17" t="n">
+      <c r="AR17" t="n">
         <v>-4.80769230769231</v>
       </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
         <v>14.9122807017544</v>
       </c>
-      <c r="AS17" t="n">
+      <c r="AT17" t="n">
         <v>-40.898</v>
       </c>
-      <c r="AT17" t="s">
-        <v>65</v>
-      </c>
       <c r="AU17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX17" t="s">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="AY17" t="s">
-        <v>69</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="AZ17" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA17"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C18" t="n">
         <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
@@ -3317,10 +3393,10 @@
       </c>
       <c r="W18"/>
       <c r="X18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z18"/>
       <c r="AA18"/>
@@ -3330,103 +3406,107 @@
       <c r="AE18"/>
       <c r="AF18"/>
       <c r="AG18" t="n">
+        <v>203</v>
+      </c>
+      <c r="AH18" t="n">
         <v>0.33</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>23</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>0.568</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>0.393</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>0.743</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>0.35</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>6.359</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>63.035</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>61.594</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ18" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR18" t="n">
         <v>5.33333333333334</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
         <v>-6.06060606060605</v>
       </c>
-      <c r="AS18"/>
-      <c r="AT18" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT18"/>
       <c r="AU18" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX18" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY18" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA18"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>97</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C19" t="n">
         <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -3456,10 +3536,10 @@
         <v>96.92</v>
       </c>
       <c r="X19" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z19"/>
       <c r="AA19"/>
@@ -3469,105 +3549,109 @@
       <c r="AE19"/>
       <c r="AF19"/>
       <c r="AG19" t="n">
+        <v>204</v>
+      </c>
+      <c r="AH19" t="n">
         <v>0.11</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>27</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>0.978</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>0.752</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>1.204</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>0.452</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>8.48</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AO19" t="n">
         <v>94.854</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AP19" t="n">
         <v>75.062</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AQ19" t="n">
         <v>3</v>
       </c>
-      <c r="AQ19" t="n">
+      <c r="AR19" t="n">
         <v>-4.04255319148937</v>
       </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
         <v>-310.909090909091</v>
       </c>
-      <c r="AS19" t="n">
+      <c r="AT19" t="n">
         <v>21.858</v>
       </c>
-      <c r="AT19" t="s">
-        <v>65</v>
-      </c>
       <c r="AU19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX19" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY19" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ19" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA19"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C20" t="n">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J20" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
@@ -3595,10 +3679,10 @@
       </c>
       <c r="W20"/>
       <c r="X20" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z20"/>
       <c r="AA20"/>
@@ -3608,103 +3692,107 @@
       <c r="AE20"/>
       <c r="AF20"/>
       <c r="AG20" t="n">
+        <v>205</v>
+      </c>
+      <c r="AH20" t="n">
         <v>0.36</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>9</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>0.277</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>0.081</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>0.473</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>0.392</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>2.768</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>6.538</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>1</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
         <v>18.5294117647059</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
         <v>-8.8888888888889</v>
       </c>
-      <c r="AS20"/>
-      <c r="AT20" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT20"/>
       <c r="AU20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX20" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY20" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ20" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA20"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>97</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C21" t="n">
         <v>5</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O21" t="n">
         <v>2</v>
@@ -3732,10 +3820,10 @@
       </c>
       <c r="W21"/>
       <c r="X21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z21"/>
       <c r="AA21"/>
@@ -3745,103 +3833,107 @@
       <c r="AE21"/>
       <c r="AF21"/>
       <c r="AG21" t="n">
+        <v>206</v>
+      </c>
+      <c r="AH21" t="n">
         <v>0.34</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>18</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>0.704</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>0.493</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>0.915</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>0.422</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>6.536</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AO21" t="n">
         <v>33.499</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AP21" t="n">
         <v>46.56</v>
       </c>
-      <c r="AP21" t="n">
+      <c r="AQ21" t="n">
         <v>3</v>
       </c>
-      <c r="AQ21" t="n">
+      <c r="AR21" t="n">
         <v>-8.3076923076923</v>
       </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
         <v>-24.1176470588235</v>
       </c>
-      <c r="AS21"/>
-      <c r="AT21" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT21"/>
       <c r="AU21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV21" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX21" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY21" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ21" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA21"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>97</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C22" t="n">
         <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H22" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J22" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O22" t="n">
         <v>2</v>
@@ -3871,10 +3963,10 @@
         <v>57.1</v>
       </c>
       <c r="X22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z22"/>
       <c r="AA22"/>
@@ -3884,105 +3976,109 @@
       <c r="AE22"/>
       <c r="AF22"/>
       <c r="AG22" t="n">
+        <v>207</v>
+      </c>
+      <c r="AH22" t="n">
         <v>0.39</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AI22" t="n">
         <v>18</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>0.695</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>0.448</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>0.942</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>0.494</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>5.508</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AO22" t="n">
         <v>41.539</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
         <v>60.985</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AQ22" t="n">
         <v>3</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AR22" t="n">
         <v>-13.9344262295082</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
         <v>-26.6666666666667</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AT22" t="n">
         <v>-3.885</v>
       </c>
-      <c r="AT22" t="s">
-        <v>65</v>
-      </c>
       <c r="AU22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX22" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY22" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ22" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA22"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>97</v>
       </c>
       <c r="B23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C23" t="n">
         <v>5</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G23" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H23" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O23" t="n">
         <v>2</v>
@@ -4012,10 +4108,10 @@
         <v>52.94</v>
       </c>
       <c r="X23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y23" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z23"/>
       <c r="AA23"/>
@@ -4025,105 +4121,109 @@
       <c r="AE23"/>
       <c r="AF23"/>
       <c r="AG23" t="n">
+        <v>208</v>
+      </c>
+      <c r="AH23" t="n">
         <v>0.47</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>21</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>0.877</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>0.618</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
         <v>1.137</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>0.519</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AN23" t="n">
         <v>6.621</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AO23" t="n">
         <v>31.08</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AP23" t="n">
         <v>43.631</v>
       </c>
-      <c r="AP23" t="n">
-        <v>2</v>
-      </c>
       <c r="AQ23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR23" t="n">
         <v>-5.66265060240964</v>
       </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
         <v>-10.4255319148936</v>
       </c>
-      <c r="AS23" t="n">
+      <c r="AT23" t="n">
         <v>9.309</v>
       </c>
-      <c r="AT23" t="s">
-        <v>65</v>
-      </c>
       <c r="AU23" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX23" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY23" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA23"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>97</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C24" t="n">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G24" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O24" t="n">
         <v>2</v>
@@ -4151,10 +4251,10 @@
       </c>
       <c r="W24"/>
       <c r="X24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y24" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z24"/>
       <c r="AA24"/>
@@ -4164,103 +4264,107 @@
       <c r="AE24"/>
       <c r="AF24"/>
       <c r="AG24" t="n">
+        <v>209</v>
+      </c>
+      <c r="AH24" t="n">
         <v>0.34</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>20</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>0.25</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>0.043</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
         <v>0.458</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
         <v>0.415</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AN24" t="n">
         <v>2.365</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AO24" t="n">
         <v>25.058</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AP24" t="n">
         <v>33.673</v>
       </c>
-      <c r="AP24" t="n">
+      <c r="AQ24" t="n">
         <v>3</v>
       </c>
-      <c r="AQ24" t="n">
+      <c r="AR24" t="n">
         <v>-25</v>
       </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
         <v>-22.0588235294118</v>
       </c>
-      <c r="AS24"/>
-      <c r="AT24" t="s">
-        <v>65</v>
-      </c>
+      <c r="AT24"/>
       <c r="AU24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX24" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY24" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>97</v>
       </c>
       <c r="B25" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C25" t="n">
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H25" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O25" t="n">
         <v>2</v>
@@ -4290,10 +4394,10 @@
         <v>90.84</v>
       </c>
       <c r="X25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y25" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z25"/>
       <c r="AA25"/>
@@ -4303,105 +4407,109 @@
       <c r="AE25"/>
       <c r="AF25"/>
       <c r="AG25" t="n">
+        <v>210</v>
+      </c>
+      <c r="AH25" t="n">
         <v>0.83</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AI25" t="n">
         <v>7</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>0.635</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>0.171</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
         <v>1.1</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>0.928</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>2.684</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AO25" t="n">
         <v>18.364</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AP25" t="n">
         <v>72.929</v>
       </c>
-      <c r="AP25" t="n">
+      <c r="AQ25" t="n">
         <v>3</v>
       </c>
-      <c r="AQ25" t="n">
+      <c r="AR25" t="n">
         <v>17.5324675324675</v>
       </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
         <v>-11.8072289156627</v>
       </c>
-      <c r="AS25" t="n">
+      <c r="AT25" t="n">
         <v>17.911</v>
       </c>
-      <c r="AT25" t="s">
-        <v>65</v>
-      </c>
       <c r="AU25" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV25" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX25" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY25" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C26" t="n">
         <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E26" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H26" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O26" t="n">
         <v>2</v>
@@ -4431,10 +4539,10 @@
         <v>79.41</v>
       </c>
       <c r="X26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y26" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z26"/>
       <c r="AA26"/>
@@ -4444,105 +4552,109 @@
       <c r="AE26"/>
       <c r="AF26"/>
       <c r="AG26" t="n">
+        <v>211</v>
+      </c>
+      <c r="AH26" t="n">
         <v>0.72</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
         <v>7</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AJ26" t="n">
         <v>0.679</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>0.244</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AL26" t="n">
         <v>1.114</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
         <v>0.87</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AN26" t="n">
         <v>3.058</v>
       </c>
-      <c r="AN26" t="n">
+      <c r="AO26" t="n">
         <v>17.462</v>
       </c>
-      <c r="AO26" t="n">
+      <c r="AP26" t="n">
         <v>70.127</v>
       </c>
-      <c r="AP26" t="n">
+      <c r="AQ26" t="n">
         <v>3</v>
       </c>
-      <c r="AQ26" t="n">
+      <c r="AR26" t="n">
         <v>-6.09375000000001</v>
       </c>
-      <c r="AR26" t="n">
+      <c r="AS26" t="n">
         <v>-20.8333333333333</v>
       </c>
-      <c r="AS26" t="n">
+      <c r="AT26" t="n">
         <v>9.283</v>
       </c>
-      <c r="AT26" t="s">
-        <v>65</v>
-      </c>
       <c r="AU26" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX26" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY26" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA26"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>97</v>
       </c>
       <c r="B27" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C27" t="n">
         <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H27" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N27" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O27" t="n">
         <v>2</v>
@@ -4572,10 +4684,10 @@
         <v>89.43</v>
       </c>
       <c r="X27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y27" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z27"/>
       <c r="AA27"/>
@@ -4585,105 +4697,109 @@
       <c r="AE27"/>
       <c r="AF27"/>
       <c r="AG27" t="n">
+        <v>212</v>
+      </c>
+      <c r="AH27" t="n">
         <v>0.76</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
         <v>7</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>0.901</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>0.484</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
         <v>1.318</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AM27" t="n">
         <v>0.833</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>4.237</v>
       </c>
-      <c r="AN27" t="n">
+      <c r="AO27" t="n">
         <v>17.788</v>
       </c>
-      <c r="AO27" t="n">
+      <c r="AP27" t="n">
         <v>65.655</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="AQ27" t="n">
         <v>3</v>
       </c>
-      <c r="AQ27" t="n">
+      <c r="AR27" t="n">
         <v>4.14893617021276</v>
       </c>
-      <c r="AR27" t="n">
+      <c r="AS27" t="n">
         <v>-9.60526315789473</v>
       </c>
-      <c r="AS27" t="n">
+      <c r="AT27" t="n">
         <v>23.775</v>
       </c>
-      <c r="AT27" t="s">
-        <v>65</v>
-      </c>
       <c r="AU27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AV27" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AW27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AX27" t="s">
-        <v>167</v>
+        <v>69</v>
       </c>
       <c r="AY27" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>97</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C28" t="n">
         <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H28" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="I28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="J28" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="O28" t="n">
         <v>2</v>
@@ -4713,10 +4829,10 @@
         <v>90.95</v>
       </c>
       <c r="X28" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Z28"/>
       <c r="AA28"/>
@@ -4726,62 +4842,66 @@
       <c r="AE28"/>
       <c r="AF28"/>
       <c r="AG28" t="n">
+        <v>213</v>
+      </c>
+      <c r="AH28" t="n">
         <v>1.02</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AI28" t="n">
         <v>7</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>0.641</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>-0.406</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>1.687</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>2.093</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AN28" t="n">
         <v>1.2</v>
       </c>
-      <c r="AN28" t="n">
+      <c r="AO28" t="n">
         <v>37.256</v>
       </c>
-      <c r="AO28" t="n">
+      <c r="AP28" t="n">
         <v>94.903</v>
       </c>
-      <c r="AP28" t="n">
+      <c r="AQ28" t="n">
         <v>3</v>
       </c>
-      <c r="AQ28" t="n">
+      <c r="AR28" t="n">
         <v>-10.5172413793104</v>
       </c>
-      <c r="AR28" t="n">
+      <c r="AS28" t="n">
         <v>-105.196078431373</v>
       </c>
-      <c r="AS28" t="n">
+      <c r="AT28" t="n">
         <v>-3.953</v>
       </c>
-      <c r="AT28" t="s">
-        <v>65</v>
-      </c>
       <c r="AU28" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AV28" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="AW28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AX28" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="AY28" t="s">
-        <v>69</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
